--- a/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale10/R10/Intermodal_EGS_data_dynamic_exponential_scale10_table47.xlsx
+++ b/Uncertainties_Dynamic_Planning/plot_distribution_exponential_scale10/R10/Intermodal_EGS_data_dynamic_exponential_scale10_table47.xlsx
@@ -6169,7 +6169,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[14, 17]</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[14, 17]</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[71, 92]</t>
+          <t>[71, 74]</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[71, 92]</t>
+          <t>[71, 74]</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[121, 149]</t>
+          <t>[121, 134]</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[121, 149]</t>
+          <t>[121, 134]</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -6343,7 +6343,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[149, 155]</t>
+          <t>[149, 159]</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[149, 155]</t>
+          <t>[149, 159]</t>
         </is>
       </c>
       <c r="G9" t="n">
